--- a/output/fit_clients/fit_round_131.xlsx
+++ b/output/fit_clients/fit_round_131.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2084192432.665488</v>
+        <v>2171898568.647505</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1094671824322931</v>
+        <v>0.09325820890107234</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03816925266149006</v>
+        <v>0.03779213702611332</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1042096223.224745</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2303471086.041679</v>
+        <v>2377546427.994168</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1217267714923908</v>
+        <v>0.140066158080974</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0354127088893376</v>
+        <v>0.03400801774807212</v>
       </c>
       <c r="H3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>3</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1151735630.027864</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3704418453.888823</v>
+        <v>4926335474.662866</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1079812208198458</v>
+        <v>0.1176077602130634</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02673198934435672</v>
+        <v>0.02369030179396992</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>47</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1852209220.129914</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2757038220.964942</v>
+        <v>4226306949.124728</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09364509589401532</v>
+        <v>0.09011758521188676</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04391838144758146</v>
+        <v>0.03935902289976432</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>52</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1378519196.360051</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2868654411.846976</v>
+        <v>2369319026.612591</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1020005139618126</v>
+        <v>0.1025218205210161</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03860691281423888</v>
+        <v>0.03597613775536364</v>
       </c>
       <c r="H6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>19</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1434327141.458255</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>3021078615.901086</v>
+        <v>3092562133.651118</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0745341861208739</v>
+        <v>0.07755338823309427</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04555653486059273</v>
+        <v>0.03498074636050252</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>37</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1510539270.80756</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2816869614.874568</v>
+        <v>3282756623.828457</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1622201002347682</v>
+        <v>0.1815191247562853</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03132268210532765</v>
+        <v>0.02567881066328954</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>42</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1408434846.182674</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1436360926.715527</v>
+        <v>1709458220.855867</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1444960345281209</v>
+        <v>0.1908257376924362</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02639337717285671</v>
+        <v>0.02386135922370431</v>
       </c>
       <c r="H9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>718180568.1369441</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4406362952.847275</v>
+        <v>5774045610.132956</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1959879549474929</v>
+        <v>0.1332789515021992</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05182477482173869</v>
+        <v>0.03970568590586281</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>55</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2203181529.746236</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -802,22 +738,16 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2804846198.545845</v>
+        <v>3594670682.682311</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1842024429432427</v>
+        <v>0.1469310415626193</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03507353684805907</v>
+        <v>0.03707771780115188</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>54</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1402423028.51836</v>
       </c>
     </row>
     <row r="12">
@@ -836,22 +766,16 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2890959633.360643</v>
+        <v>2965458940.281296</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1632414851025744</v>
+        <v>0.1575826594010035</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03553587088341759</v>
+        <v>0.05318979861283839</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>46</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1445479824.66093</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3938613160.063285</v>
+        <v>5307926696.550842</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09519873605051432</v>
+        <v>0.09463588164765632</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0299532948932483</v>
+        <v>0.02909660825481198</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>44</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1969306638.039991</v>
       </c>
     </row>
     <row r="14">
@@ -904,22 +822,16 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3385451760.699522</v>
+        <v>2434898804.332565</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1144146207055678</v>
+        <v>0.1777512871092739</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04045543708405554</v>
+        <v>0.04035690247335873</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>42</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1692725886.828031</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1189636902.970773</v>
+        <v>1266402116.280153</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09007647973019041</v>
+        <v>0.08840380034396199</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04348299671670774</v>
+        <v>0.04065672439619589</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>594818466.5786365</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2904944601.507252</v>
+        <v>1764652745.744341</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07052525035849334</v>
+        <v>0.1110909632126558</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04244451778851475</v>
+        <v>0.04066179123341643</v>
       </c>
       <c r="H16" t="b">
         <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>20</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1452472295.330349</v>
       </c>
     </row>
     <row r="17">
@@ -1006,22 +906,16 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4670244664.806293</v>
+        <v>3962097829.25759</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1477098906853677</v>
+        <v>0.1371148161172982</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04708521264882091</v>
+        <v>0.04100684376621246</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>38</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2335122333.838792</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1040,22 +934,16 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3829515568.160524</v>
+        <v>3052282556.734317</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1660175696600604</v>
+        <v>0.1781921821988235</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02742355148798035</v>
+        <v>0.02694666245686222</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>43</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1914757754.28584</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -1074,22 +962,16 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>828903731.9619532</v>
+        <v>1170240879.707988</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1332434359610389</v>
+        <v>0.1527317050043545</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02592477490026923</v>
+        <v>0.01990525981460818</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>414451853.5156434</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2751809836.10397</v>
+        <v>1928808085.717956</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1030211838498795</v>
+        <v>0.1005825543935821</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03041901563339493</v>
+        <v>0.03095760563324598</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>21</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1375904864.281397</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2016773328.776735</v>
+        <v>1767146726.907554</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07404407848622034</v>
+        <v>0.06484582254844053</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03510739241148474</v>
+        <v>0.03357704499387291</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>12</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1008386698.683966</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3860045141.164162</v>
+        <v>3614698112.138721</v>
       </c>
       <c r="F22" t="n">
-        <v>0.08833641789451004</v>
+        <v>0.1078471188328264</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03968781536164502</v>
+        <v>0.05313229365944156</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>37</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1930022580.558633</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1311348644.277452</v>
+        <v>1052328810.51674</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1749407258244001</v>
+        <v>0.1850509281376723</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04573143227423314</v>
+        <v>0.04008170133421402</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>655674339.817203</v>
       </c>
     </row>
     <row r="24">
@@ -1244,22 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>4079576875.265388</v>
+        <v>2494057251.053812</v>
       </c>
       <c r="F24" t="n">
-        <v>0.102254419256044</v>
+        <v>0.1445373551064576</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03500801095286813</v>
+        <v>0.02281077669591273</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>38</v>
-      </c>
-      <c r="J24" t="n">
-        <v>2039788400.228252</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1450503877.0741</v>
+        <v>1115016020.764092</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1173051168678719</v>
+        <v>0.1017059686900096</v>
       </c>
       <c r="G25" t="n">
-        <v>0.01877591164489207</v>
+        <v>0.02060939476347619</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>725251898.8289698</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1453444115.94467</v>
+        <v>1175398558.780823</v>
       </c>
       <c r="F26" t="n">
-        <v>0.103683465802891</v>
+        <v>0.1109436592626398</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02746045601458176</v>
+        <v>0.02739920818030646</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>726722141.0422326</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4525768432.718053</v>
+        <v>4140552406.086194</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1530652350591207</v>
+        <v>0.1351415552834583</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01673897161478482</v>
+        <v>0.01973622532785778</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>29</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2262884200.352631</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3656681041.977111</v>
+        <v>2838661513.486397</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09169977272738106</v>
+        <v>0.1381867933793726</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0366378996602775</v>
+        <v>0.03425875724089727</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>42</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1828340589.155246</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3917666342.294634</v>
+        <v>4750263481.236315</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1305575526685797</v>
+        <v>0.14297432484391</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03936766015476128</v>
+        <v>0.03745687638381626</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>59</v>
-      </c>
-      <c r="J29" t="n">
-        <v>1958833193.660842</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1525232537.479516</v>
+        <v>1736560046.703281</v>
       </c>
       <c r="F30" t="n">
-        <v>0.098745065180776</v>
+        <v>0.09969280646755525</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03616325867101838</v>
+        <v>0.02727749122122547</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>762616252.0582911</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1342737073.44946</v>
+        <v>1499011975.738026</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1119064400343163</v>
+        <v>0.08764418138750707</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03257464111718064</v>
+        <v>0.03975818969664089</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>671368454.5407761</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1715958221.07609</v>
+        <v>1308242670.600185</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1166709498518157</v>
+        <v>0.07445890793141408</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02445366166930398</v>
+        <v>0.02887787177863781</v>
       </c>
       <c r="H32" t="b">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>857979223.5422703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2670033111.805937</v>
+        <v>3079800076.058879</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1697773670888768</v>
+        <v>0.1410204563571039</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0402568257819047</v>
+        <v>0.03848546854490073</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>39</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1335016579.576006</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1258728083.292994</v>
+        <v>1192427385.20327</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09119622735634289</v>
+        <v>0.07503853874286771</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01741540099852268</v>
+        <v>0.02487054370497209</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>629364036.9935801</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>889766762.8476062</v>
+        <v>874066243.7272961</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08133652686509109</v>
+        <v>0.1181110705893539</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02988062161521611</v>
+        <v>0.03669954157200978</v>
       </c>
       <c r="H35" t="b">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>444883424.1346785</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2332616490.054473</v>
+        <v>2370515368.282866</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1271366716197666</v>
+        <v>0.1113292553298767</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02670127643962718</v>
+        <v>0.02158106021691235</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>34</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1166308280.375746</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2682048680.003741</v>
+        <v>2824040508.325624</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07253760108871977</v>
+        <v>0.08887593039137691</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03405794165489103</v>
+        <v>0.03982027554590545</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>33</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1341024461.045835</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1344807717.033041</v>
+        <v>2200068441.755186</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1060647460215224</v>
+        <v>0.09579021251267623</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03371146712153303</v>
+        <v>0.0354981991904503</v>
       </c>
       <c r="H38" t="b">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>672403929.6474506</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1578158987.196491</v>
+        <v>1731557686.870988</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1186508631677686</v>
+        <v>0.1400061504871533</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02595014477321369</v>
+        <v>0.02612675750466897</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>789079552.1229289</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1598142431.045342</v>
+        <v>1612837720.999848</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1511691328296817</v>
+        <v>0.1205583857632953</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04389707326974281</v>
+        <v>0.05109981109196467</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>799071157.0984862</v>
       </c>
     </row>
     <row r="41">
@@ -1822,22 +1578,16 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2795188029.083563</v>
+        <v>2088023163.774498</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1007669222209729</v>
+        <v>0.1419433036787565</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04564824465583243</v>
+        <v>0.03120400886055126</v>
       </c>
       <c r="H41" t="b">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>33</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1397594010.880513</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4166445443.264651</v>
+        <v>3948513490.852925</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1257793421716666</v>
+        <v>0.1064070136542884</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04493960621617013</v>
+        <v>0.03611033074450488</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>45</v>
-      </c>
-      <c r="J42" t="n">
-        <v>2083222762.307575</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2181371457.935708</v>
+        <v>2151507961.377153</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1898330445286974</v>
+        <v>0.1457735347856298</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02387604410756157</v>
+        <v>0.0240512351450866</v>
       </c>
       <c r="H43" t="b">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>43</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1090685809.629354</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -1924,22 +1662,16 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2070456691.019208</v>
+        <v>1634921238.695457</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08096727937011515</v>
+        <v>0.07648839677077761</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02570030372984723</v>
+        <v>0.03473564145632389</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1035228465.858371</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2244862750.813277</v>
+        <v>1688464976.14728</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1538384619070996</v>
+        <v>0.1848037736538741</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05306563055967687</v>
+        <v>0.03629374842828288</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1122431390.886258</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5616857350.440613</v>
+        <v>5352401607.120834</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1206945462727061</v>
+        <v>0.1768180340998149</v>
       </c>
       <c r="G46" t="n">
-        <v>0.03902702965114575</v>
+        <v>0.05901533698109896</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>47</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2808428737.281316</v>
       </c>
     </row>
     <row r="47">
@@ -2026,22 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3495690154.153969</v>
+        <v>3176860011.983545</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1327760300373092</v>
+        <v>0.1972868813105044</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04260354382624414</v>
+        <v>0.04928980748359697</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>35</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1747845047.575341</v>
       </c>
     </row>
     <row r="48">
@@ -2060,22 +1774,16 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3988546727.367623</v>
+        <v>3925309628.876908</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08875552806746638</v>
+        <v>0.07633179505783862</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02570020551117585</v>
+        <v>0.03584634719830151</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>43</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1994273398.6991</v>
       </c>
     </row>
     <row r="49">
@@ -2094,22 +1802,16 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1541655129.474061</v>
+        <v>1353191958.368102</v>
       </c>
       <c r="F49" t="n">
-        <v>0.133775563695248</v>
+        <v>0.1612363351318006</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03564341161607812</v>
+        <v>0.03105603554448538</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>770827590.2223456</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3835159261.233639</v>
+        <v>3485358152.198756</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1621407565571152</v>
+        <v>0.1518872063141401</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04024201427685261</v>
+        <v>0.05051447075198814</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>45</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1917579630.980958</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1226066651.267952</v>
+        <v>1176100175.459645</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1569937088044642</v>
+        <v>0.1754305843968325</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04472887544648536</v>
+        <v>0.04671286621655418</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>613033372.9129888</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4329915725.881019</v>
+        <v>4408289914.940816</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1283891955929003</v>
+        <v>0.0861377729245757</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0613799285645939</v>
+        <v>0.0487574474395</v>
       </c>
       <c r="H52" t="b">
         <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>54</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2164957899.95627</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3694562712.423808</v>
+        <v>3264803518.485639</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1240255117609136</v>
+        <v>0.1712803134249776</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02726342536557957</v>
+        <v>0.02822862913881296</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>38</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1847281340.660349</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3009860558.228507</v>
+        <v>4726641506.425427</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1427497415991474</v>
+        <v>0.1299364913709129</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05016603733601729</v>
+        <v>0.04786658365285599</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>44</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1504930265.400003</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3183554947.196125</v>
+        <v>4400478808.169271</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1449592850200713</v>
+        <v>0.1850678949371684</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02308488802800041</v>
+        <v>0.02327623220116069</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>37</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1591777412.407085</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1645451417.453008</v>
+        <v>1799001397.146359</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1575079767203705</v>
+        <v>0.1519684061546918</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0389218040476658</v>
+        <v>0.05301508767587779</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>822725729.3844371</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3007095899.398142</v>
+        <v>3990463220.688644</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1337733841070076</v>
+        <v>0.1162743085044561</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01688148692453119</v>
+        <v>0.0222660814421984</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>42</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1503547954.658307</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1699016711.701534</v>
+        <v>1366626211.937814</v>
       </c>
       <c r="F58" t="n">
-        <v>0.199221827573112</v>
+        <v>0.1437838724271846</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02715655895300497</v>
+        <v>0.02721054832531378</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>849508368.786045</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4950483181.627081</v>
+        <v>3752368612.305961</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1186618432368268</v>
+        <v>0.08400058376199908</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04360573677763167</v>
+        <v>0.04987130404360974</v>
       </c>
       <c r="H59" t="b">
         <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>35</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2475241520.886316</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3098453723.204065</v>
+        <v>2596950269.287826</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1279815241504422</v>
+        <v>0.1978772434866275</v>
       </c>
       <c r="G60" t="n">
-        <v>0.022907790638974</v>
+        <v>0.03312950422874109</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>42</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1549226942.233519</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2739619743.649152</v>
+        <v>2049815642.393861</v>
       </c>
       <c r="F61" t="n">
-        <v>0.138959633228282</v>
+        <v>0.1093416210415127</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02107405354099365</v>
+        <v>0.02022224424655019</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>45</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1369809876.798051</v>
       </c>
     </row>
     <row r="62">
@@ -2536,22 +2166,16 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1703893682.24445</v>
+        <v>2018075433.729922</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1759218728991296</v>
+        <v>0.1179096982101194</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04327754316425247</v>
+        <v>0.04071433682477278</v>
       </c>
       <c r="H62" t="b">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>851946854.7455063</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3375063707.465228</v>
+        <v>5311048988.266969</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09508880067749552</v>
+        <v>0.07247556653124912</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04569236633811107</v>
+        <v>0.04038192192683834</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>37</v>
-      </c>
-      <c r="J63" t="n">
-        <v>1687531943.959344</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3676565877.690987</v>
+        <v>5481024377.123381</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1919034431373633</v>
+        <v>0.1470699519124646</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03064078156760245</v>
+        <v>0.02636935375325735</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>41</v>
-      </c>
-      <c r="J64" t="n">
-        <v>1838282951.896356</v>
       </c>
     </row>
     <row r="65">
@@ -2638,22 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3906487665.845068</v>
+        <v>4700034056.340828</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1447617099404641</v>
+        <v>0.1646426470445198</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03176797878549081</v>
+        <v>0.0223820595945185</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>47</v>
-      </c>
-      <c r="J65" t="n">
-        <v>1953243857.032023</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4616791489.609946</v>
+        <v>3834327232.357511</v>
       </c>
       <c r="F66" t="n">
-        <v>0.106526090117924</v>
+        <v>0.1096611345800857</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03862715725580804</v>
+        <v>0.03129570653612392</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>38</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2308395751.387871</v>
       </c>
     </row>
     <row r="67">
@@ -2706,22 +2306,16 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3411108614.531225</v>
+        <v>2925680132.75687</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09967065941870663</v>
+        <v>0.07174190301911201</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03792411255545416</v>
+        <v>0.05109521805305368</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>41</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1705554290.648921</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2740,22 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5876183913.869482</v>
+        <v>5204479301.109154</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1112237924784863</v>
+        <v>0.1414151017666964</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03961220892530643</v>
+        <v>0.03888005954232012</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>42</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2938092066.376077</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2316187651.767955</v>
+        <v>2419868351.167857</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1220128443524108</v>
+        <v>0.1178534544689049</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04711238228234878</v>
+        <v>0.04581892689397943</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1158093871.675371</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3222624085.603141</v>
+        <v>3302397414.173217</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0793316980789416</v>
+        <v>0.08902410582386178</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04470305431477063</v>
+        <v>0.0372377745404006</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>38</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1611312034.235197</v>
       </c>
     </row>
     <row r="71">
@@ -2842,22 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5582387826.426752</v>
+        <v>3471899770.515023</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1264777142261948</v>
+        <v>0.1423589656539828</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02698006107441447</v>
+        <v>0.02436142597515811</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>48</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2791194062.33082</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1649658652.961822</v>
+        <v>2277872899.160998</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09194635635146463</v>
+        <v>0.09475362607525907</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04550766271253733</v>
+        <v>0.04698312262199458</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>824829329.3030906</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3544033619.578065</v>
+        <v>3125953647.015795</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08038293767627312</v>
+        <v>0.08226413334955203</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04702781606951253</v>
+        <v>0.04720102087082944</v>
       </c>
       <c r="H73" t="b">
-        <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>51</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1772016755.92472</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2908033823.783934</v>
+        <v>2871031952.541853</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1551025178998315</v>
+        <v>0.1365396071094231</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03508165069958259</v>
+        <v>0.02356276081794138</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>45</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1454016985.18839</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2391798802.926315</v>
+        <v>1930380061.441082</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1039117721805477</v>
+        <v>0.1324032646000158</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02390323827383672</v>
+        <v>0.02497720198445223</v>
       </c>
       <c r="H75" t="b">
-        <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1195899328.914869</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4299646645.981027</v>
+        <v>3643328988.535069</v>
       </c>
       <c r="F76" t="n">
-        <v>0.113072812703006</v>
+        <v>0.1112564796813274</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02702464881537833</v>
+        <v>0.02070917179166369</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>29</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2149823320.223875</v>
       </c>
     </row>
     <row r="77">
@@ -3046,22 +2586,16 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1747613661.982112</v>
+        <v>2111659415.914545</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1257328491337919</v>
+        <v>0.1349744122276055</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02542789015039276</v>
+        <v>0.02568571955281581</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>873806855.1756128</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>2904680802.500412</v>
+        <v>3059512128.162017</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1133721208723402</v>
+        <v>0.099687444750111</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04523096324124903</v>
+        <v>0.0492915210529817</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>46</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1452340445.336785</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1852511742.145969</v>
+        <v>1621237201.029608</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1075421789318607</v>
+        <v>0.1481883270297304</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02582394261901371</v>
+        <v>0.0251532425745371</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>926255966.8645841</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3939134335.793085</v>
+        <v>5256520656.049102</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1044956513823412</v>
+        <v>0.09227213664985702</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02683059651682203</v>
+        <v>0.03503179140493876</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>27</v>
-      </c>
-      <c r="J80" t="n">
-        <v>1969567164.292184</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4426977267.492367</v>
+        <v>4476236676.538618</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1077372558042453</v>
+        <v>0.1201081049638053</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02923787954316719</v>
+        <v>0.02632925637222245</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>30</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2213488612.736754</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5494191416.439644</v>
+        <v>4748557581.566329</v>
       </c>
       <c r="F82" t="n">
-        <v>0.162273889668259</v>
+        <v>0.135831209148209</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01824250281026446</v>
+        <v>0.02480175890924428</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>46</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2747095664.548755</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2479278287.112516</v>
+        <v>1794197460.055741</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1033077118513425</v>
+        <v>0.1396772703224846</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04269970292133413</v>
+        <v>0.03120639120221045</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1239639188.492778</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2176780912.569787</v>
+        <v>2396161526.492565</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1119642033372931</v>
+        <v>0.1019526420246227</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04714139664567119</v>
+        <v>0.03790386997075596</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>2</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1088390435.338739</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3029231847.783039</v>
+        <v>3650792410.949683</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1175416241128347</v>
+        <v>0.1529795598643792</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04908936652945186</v>
+        <v>0.04422154629452363</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>50</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1514615987.212817</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2766374347.479274</v>
+        <v>1980184166.923504</v>
       </c>
       <c r="F86" t="n">
-        <v>0.160856277539834</v>
+        <v>0.1166059170628657</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01930100577653855</v>
+        <v>0.02483789890556238</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>14</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1383187307.885877</v>
       </c>
     </row>
     <row r="87">
@@ -3386,22 +2866,16 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1181583837.738175</v>
+        <v>1176228905.68703</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1778454678994349</v>
+        <v>0.1527240289248634</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03077896599213906</v>
+        <v>0.03887210085894937</v>
       </c>
       <c r="H87" t="b">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>590791969.6772408</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3326049373.573876</v>
+        <v>3622009909.619189</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1593650199149646</v>
+        <v>0.1529477276460948</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03150235504469545</v>
+        <v>0.03463507550656163</v>
       </c>
       <c r="H88" t="b">
         <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>52</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1663024749.402923</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2581590942.075229</v>
+        <v>2555650289.770124</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1243719686231789</v>
+        <v>0.1426661928536558</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03524736834241383</v>
+        <v>0.03661837942865353</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>45</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1290795539.777636</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1952203078.35836</v>
+        <v>1698988161.144784</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1179566419209171</v>
+        <v>0.1264240544748707</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03924365236631768</v>
+        <v>0.04794800614733437</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>976101600.6303238</v>
       </c>
     </row>
     <row r="91">
@@ -3522,22 +2978,16 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1751143032.154284</v>
+        <v>1318214570.566264</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1346041589596131</v>
+        <v>0.1510190979159281</v>
       </c>
       <c r="G91" t="n">
-        <v>0.03735330860765135</v>
+        <v>0.04964391081823471</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>875571521.4680833</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2646715720.450025</v>
+        <v>1917576523.182118</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07003979665608391</v>
+        <v>0.08681515823100174</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04281725136231165</v>
+        <v>0.04363320017138168</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>31</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1323357855.214964</v>
       </c>
     </row>
     <row r="93">
@@ -3590,22 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4017029921.565218</v>
+        <v>3299053595.527245</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1027624273507724</v>
+        <v>0.1069286813025615</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05436725060368229</v>
+        <v>0.03886893146072053</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>40</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2008514960.252831</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1605397836.383902</v>
+        <v>1985552298.09626</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1678975724939898</v>
+        <v>0.1354309478687992</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03828537146884926</v>
+        <v>0.03827233272350067</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>802698865.1050645</v>
       </c>
     </row>
     <row r="95">
@@ -3658,22 +3090,16 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2812956928.055252</v>
+        <v>2781734829.233621</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1025597104642641</v>
+        <v>0.1095864115773515</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05242777124029318</v>
+        <v>0.04864384624264339</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>32</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1406478477.316444</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1931850599.200314</v>
+        <v>1843927442.435856</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09543007308971736</v>
+        <v>0.09909275231998516</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03609240745007503</v>
+        <v>0.04509854925118716</v>
       </c>
       <c r="H96" t="b">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>965925293.8067632</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -3726,22 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4122422478.31108</v>
+        <v>5270852030.401548</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1204756632749819</v>
+        <v>0.1690863947488719</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02592628250629502</v>
+        <v>0.027082263630244</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>43</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2061211305.330751</v>
       </c>
     </row>
     <row r="98">
@@ -3760,22 +3174,16 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2586445009.297769</v>
+        <v>3582968115.591944</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08418300648586249</v>
+        <v>0.098477440642074</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02691122903397464</v>
+        <v>0.02882686070549734</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>35</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1293222461.247041</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3375331337.377358</v>
+        <v>3026656482.103438</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1326368186098559</v>
+        <v>0.1235591728684722</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03259531177327793</v>
+        <v>0.03063327653433079</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>42</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1687665681.79445</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4659873219.095139</v>
+        <v>3283098046.76138</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1670496681371818</v>
+        <v>0.1782218109679118</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02468708313460614</v>
+        <v>0.02520129155704469</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>40</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2329936732.843807</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3282536334.760958</v>
+        <v>2263727472.538819</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1729438758730872</v>
+        <v>0.1828433579466056</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03783968243390911</v>
+        <v>0.04320868704179123</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>54</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1641268293.73362</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_131.xlsx
+++ b/output/fit_clients/fit_round_131.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2171898568.647505</v>
+        <v>2470977814.209255</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09325820890107234</v>
+        <v>0.09370663385360135</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03779213702611332</v>
+        <v>0.02974412989874975</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,22 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2377546427.994168</v>
+        <v>1918090439.986446</v>
       </c>
       <c r="F3" t="n">
-        <v>0.140066158080974</v>
+        <v>0.1707873426176867</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03400801774807212</v>
+        <v>0.03945410681672751</v>
       </c>
       <c r="H3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4926335474.662866</v>
+        <v>4417314155.358835</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1176077602130634</v>
+        <v>0.1391851592918084</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02369030179396992</v>
+        <v>0.02309091943691088</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4226306949.124728</v>
+        <v>2688291376.398063</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09011758521188676</v>
+        <v>0.1108392676550718</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03935902289976432</v>
+        <v>0.05014709954840411</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -598,13 +598,13 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2369319026.612591</v>
+        <v>2739588857.885367</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1025218205210161</v>
+        <v>0.1390849144583741</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03597613775536364</v>
+        <v>0.05085898884319997</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>3092562133.651118</v>
+        <v>3054540856.224875</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07755338823309427</v>
+        <v>0.08904659982358945</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03498074636050252</v>
+        <v>0.04438012885660799</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3282756623.828457</v>
+        <v>2404318664.737965</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1815191247562853</v>
+        <v>0.1926499094752294</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02567881066328954</v>
+        <v>0.03236728317194416</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,22 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1709458220.855867</v>
+        <v>1417882913.874281</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1908257376924362</v>
+        <v>0.1972612632383007</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02386135922370431</v>
+        <v>0.02404699032093166</v>
       </c>
       <c r="H9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5774045610.132956</v>
+        <v>5170418482.764737</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1332789515021992</v>
+        <v>0.1324300946186886</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03970568590586281</v>
+        <v>0.05343504710097835</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3594670682.682311</v>
+        <v>3357131899.262614</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1469310415626193</v>
+        <v>0.184308056578522</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03707771780115188</v>
+        <v>0.03046322735896918</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2965458940.281296</v>
+        <v>2153993384.242491</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1575826594010035</v>
+        <v>0.1488999545789921</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05318979861283839</v>
+        <v>0.04405772704809336</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5307926696.550842</v>
+        <v>4093763903.667275</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09463588164765632</v>
+        <v>0.07206302476030162</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02909660825481198</v>
+        <v>0.0251536342314866</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -822,13 +822,13 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2434898804.332565</v>
+        <v>3280803884.712936</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1777512871092739</v>
+        <v>0.1719390971404508</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04035690247335873</v>
+        <v>0.03875962999913095</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1266402116.280153</v>
+        <v>1510766581.317577</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08840380034396199</v>
+        <v>0.07770539303800923</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04065672439619589</v>
+        <v>0.04563138255315828</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,22 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1764652745.744341</v>
+        <v>2358160195.748588</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1110909632126558</v>
+        <v>0.09249437442033863</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04066179123341643</v>
+        <v>0.03806301367285166</v>
       </c>
       <c r="H16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3962097829.25759</v>
+        <v>3798913749.806979</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1371148161172982</v>
+        <v>0.1522080250888906</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04100684376621246</v>
+        <v>0.05189598514594588</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,22 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3052282556.734317</v>
+        <v>3775248067.101007</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1781921821988235</v>
+        <v>0.1803593895003157</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02694666245686222</v>
+        <v>0.02831618020526972</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1170240879.707988</v>
+        <v>1134796169.912643</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1527317050043545</v>
+        <v>0.1336278538371936</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01990525981460818</v>
+        <v>0.02590310825405844</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -990,13 +990,13 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1928808085.717956</v>
+        <v>1969941702.966914</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1005825543935821</v>
+        <v>0.1235927389987247</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03095760563324598</v>
+        <v>0.02188209688749861</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1767146726.907554</v>
+        <v>1780594753.335907</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06484582254844053</v>
+        <v>0.06483476153934677</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03357704499387291</v>
+        <v>0.04127978324959314</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3614698112.138721</v>
+        <v>3823275903.24644</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1078471188328264</v>
+        <v>0.1170088057993257</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05313229365944156</v>
+        <v>0.04994212969256342</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1074,13 +1074,13 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1052328810.51674</v>
+        <v>1298881517.300266</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1850509281376723</v>
+        <v>0.1747002292050039</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04008170133421402</v>
+        <v>0.0437927558938827</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1102,16 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2494057251.053812</v>
+        <v>3978296323.532451</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1445373551064576</v>
+        <v>0.1025282760021698</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02281077669591273</v>
+        <v>0.02876579232218685</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1130,13 +1130,13 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1115016020.764092</v>
+        <v>1381907376.28673</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1017059686900096</v>
+        <v>0.100813207417456</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02060939476347619</v>
+        <v>0.02617194067447684</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1158,13 +1158,13 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1175398558.780823</v>
+        <v>923545177.8793361</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1109436592626398</v>
+        <v>0.1057128942475863</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02739920818030646</v>
+        <v>0.03819098376579196</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4140552406.086194</v>
+        <v>3500028088.290648</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1351415552834583</v>
+        <v>0.152937871585913</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01973622532785778</v>
+        <v>0.02536982436354627</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2838661513.486397</v>
+        <v>3697380809.48498</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1381867933793726</v>
+        <v>0.1065557174827459</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03425875724089727</v>
+        <v>0.03792302756760867</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4750263481.236315</v>
+        <v>4062674387.731305</v>
       </c>
       <c r="F29" t="n">
-        <v>0.14297432484391</v>
+        <v>0.1118432036963571</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03745687638381626</v>
+        <v>0.04066776721542357</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1736560046.703281</v>
+        <v>2409080693.480955</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09969280646755525</v>
+        <v>0.1386783390963947</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02727749122122547</v>
+        <v>0.03757726595553579</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1499011975.738026</v>
+        <v>1389165330.193461</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08764418138750707</v>
+        <v>0.07110400876451929</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03975818969664089</v>
+        <v>0.03495825703694033</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1326,16 +1326,16 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1308242670.600185</v>
+        <v>1676934083.312599</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07445890793141408</v>
+        <v>0.1037468956655068</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02887787177863781</v>
+        <v>0.02570788441783897</v>
       </c>
       <c r="H32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>3079800076.058879</v>
+        <v>2167195914.341641</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1410204563571039</v>
+        <v>0.1393614025733071</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03848546854490073</v>
+        <v>0.04454876922921092</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1192427385.20327</v>
+        <v>1160920935.952107</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07503853874286771</v>
+        <v>0.08386118773054592</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02487054370497209</v>
+        <v>0.02526923650442295</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1410,16 +1410,16 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>874066243.7272961</v>
+        <v>1094859893.526438</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1181110705893539</v>
+        <v>0.09917283990333144</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03669954157200978</v>
+        <v>0.0308608946304599</v>
       </c>
       <c r="H35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2370515368.282866</v>
+        <v>3128204295.78701</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1113292553298767</v>
+        <v>0.165209810578165</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02158106021691235</v>
+        <v>0.02541528701535056</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2824040508.325624</v>
+        <v>2170471950.617272</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08887593039137691</v>
+        <v>0.1019316010170227</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03982027554590545</v>
+        <v>0.03084525923456093</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,22 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2200068441.755186</v>
+        <v>2073514693.367334</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09579021251267623</v>
+        <v>0.1165944696965097</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0354981991904503</v>
+        <v>0.03950852101431245</v>
       </c>
       <c r="H38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1731557686.870988</v>
+        <v>1870036697.356467</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1400061504871533</v>
+        <v>0.1512404177317738</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02612675750466897</v>
+        <v>0.02338047545684079</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1550,13 +1550,13 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1612837720.999848</v>
+        <v>1498863740.184243</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1205583857632953</v>
+        <v>0.1353425391642088</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05109981109196467</v>
+        <v>0.0385355664196715</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1578,16 +1578,16 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2088023163.774498</v>
+        <v>2464034966.599926</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1419433036787565</v>
+        <v>0.1191234890232326</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03120400886055126</v>
+        <v>0.02847031727786721</v>
       </c>
       <c r="H41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3948513490.852925</v>
+        <v>2844778921.513149</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1064070136542884</v>
+        <v>0.1058907610596123</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03611033074450488</v>
+        <v>0.02941401834351578</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,22 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2151507961.377153</v>
+        <v>2863504446.432683</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1457735347856298</v>
+        <v>0.1626274697208418</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0240512351450866</v>
+        <v>0.01984830309743635</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1634921238.695457</v>
+        <v>1437786262.190964</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07648839677077761</v>
+        <v>0.07422317469239041</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03473564145632389</v>
+        <v>0.02478273702936317</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1688464976.14728</v>
+        <v>2049883737.686021</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1848037736538741</v>
+        <v>0.1367494515665432</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03629374842828288</v>
+        <v>0.04748671415072288</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1718,16 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5352401607.120834</v>
+        <v>3862846373.205859</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1768180340998149</v>
+        <v>0.151729960112589</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05901533698109896</v>
+        <v>0.06028381274477378</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1746,16 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3176860011.983545</v>
+        <v>5060011112.813437</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1972868813105044</v>
+        <v>0.1647686790812461</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04928980748359697</v>
+        <v>0.04247548567618217</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3925309628.876908</v>
+        <v>3531483720.154983</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07633179505783862</v>
+        <v>0.06968525963732938</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03584634719830151</v>
+        <v>0.0383158591287583</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1353191958.368102</v>
+        <v>1440566727.138433</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1612363351318006</v>
+        <v>0.19582568905324</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03105603554448538</v>
+        <v>0.03041707553940894</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3485358152.198756</v>
+        <v>4096052112.620651</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1518872063141401</v>
+        <v>0.1195809512054131</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05051447075198814</v>
+        <v>0.04883762920720929</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1176100175.459645</v>
+        <v>1423253312.896549</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1754305843968325</v>
+        <v>0.1630250819687952</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04671286621655418</v>
+        <v>0.05007079348725156</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,22 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4408289914.940816</v>
+        <v>5138448271.513054</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0861377729245757</v>
+        <v>0.1199974344785363</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0487574474395</v>
+        <v>0.05275953641883718</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3264803518.485639</v>
+        <v>3228736468.1453</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1712803134249776</v>
+        <v>0.1712077027899598</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02822862913881296</v>
+        <v>0.0237246699929332</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1942,16 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4726641506.425427</v>
+        <v>3457329691.917242</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1299364913709129</v>
+        <v>0.1093279721928758</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04786658365285599</v>
+        <v>0.04520452639013716</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4400478808.169271</v>
+        <v>3388341368.394475</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1850678949371684</v>
+        <v>0.1458685204519432</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02327623220116069</v>
+        <v>0.0223761178623891</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1998,13 +1998,13 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1799001397.146359</v>
+        <v>1257661502.121991</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1519684061546918</v>
+        <v>0.140456229729131</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05301508767587779</v>
+        <v>0.0470956247802647</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3990463220.688644</v>
+        <v>3857625084.146763</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1162743085044561</v>
+        <v>0.1320603857236274</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0222660814421984</v>
+        <v>0.01736127247417001</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1366626211.937814</v>
+        <v>1285576823.448758</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1437838724271846</v>
+        <v>0.1844981161832776</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02721054832531378</v>
+        <v>0.03507562407591884</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,22 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3752368612.305961</v>
+        <v>3779669556.234488</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08400058376199908</v>
+        <v>0.1284399813290041</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04987130404360974</v>
+        <v>0.03255230835234328</v>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2596950269.287826</v>
+        <v>3462098354.41641</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1978772434866275</v>
+        <v>0.1637909141759995</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03312950422874109</v>
+        <v>0.02081813698014418</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2049815642.393861</v>
+        <v>2578730226.393848</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1093416210415127</v>
+        <v>0.1237063053941398</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02022224424655019</v>
+        <v>0.02290299741388862</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,22 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2018075433.729922</v>
+        <v>1749552572.425092</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1179096982101194</v>
+        <v>0.1777706294824827</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04071433682477278</v>
+        <v>0.04237021917023341</v>
       </c>
       <c r="H62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5311048988.266969</v>
+        <v>4183777296.823995</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07247556653124912</v>
+        <v>0.08853064819289143</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04038192192683834</v>
+        <v>0.03456637603720233</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5481024377.123381</v>
+        <v>5302976358.004083</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1470699519124646</v>
+        <v>0.119364431416582</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02636935375325735</v>
+        <v>0.02836679903207577</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2250,16 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4700034056.340828</v>
+        <v>4663061607.39833</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1646426470445198</v>
+        <v>0.1728123865801585</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0223820595945185</v>
+        <v>0.02469943480863914</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3834327232.357511</v>
+        <v>5592444121.533569</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1096611345800857</v>
+        <v>0.1096250801604405</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03129570653612392</v>
+        <v>0.04117693401230191</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2306,13 +2306,13 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2925680132.75687</v>
+        <v>3409288364.255296</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07174190301911201</v>
+        <v>0.06642700394169412</v>
       </c>
       <c r="G67" t="n">
-        <v>0.05109521805305368</v>
+        <v>0.03163443841308368</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,19 +2328,19 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5204479301.109154</v>
+        <v>4814965530.071038</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1414151017666964</v>
+        <v>0.1448665086068303</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03888005954232012</v>
+        <v>0.04467112120366878</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
@@ -2362,13 +2362,13 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2419868351.167857</v>
+        <v>1544204644.726507</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1178534544689049</v>
+        <v>0.1632491344939096</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04581892689397943</v>
+        <v>0.03946184134126303</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2390,13 +2390,13 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3302397414.173217</v>
+        <v>2461425777.349013</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08902410582386178</v>
+        <v>0.07271601683045534</v>
       </c>
       <c r="G70" t="n">
-        <v>0.0372377745404006</v>
+        <v>0.04043233626583227</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2418,13 +2418,13 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3471899770.515023</v>
+        <v>5317562023.311051</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1423589656539828</v>
+        <v>0.1610189181863395</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02436142597515811</v>
+        <v>0.02857943875372708</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2277872899.160998</v>
+        <v>1600772850.439893</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09475362607525907</v>
+        <v>0.07907120011504791</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04698312262199458</v>
+        <v>0.03729343240003932</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,22 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3125953647.015795</v>
+        <v>3181032541.788282</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08226413334955203</v>
+        <v>0.09324286918073106</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04720102087082944</v>
+        <v>0.03328337377384941</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2496,22 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2871031952.541853</v>
+        <v>3648385508.766501</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1365396071094231</v>
+        <v>0.1578183970417179</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02356276081794138</v>
+        <v>0.03414065497381759</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2524,22 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1930380061.441082</v>
+        <v>1893431079.200026</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1324032646000158</v>
+        <v>0.1129848980428151</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02497720198445223</v>
+        <v>0.03639228087418353</v>
       </c>
       <c r="H75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3643328988.535069</v>
+        <v>4251632777.995777</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1112564796813274</v>
+        <v>0.08719798011348796</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02070917179166369</v>
+        <v>0.02105385733221542</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2111659415.914545</v>
+        <v>1496521053.628314</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1349744122276055</v>
+        <v>0.1260588172935701</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02568571955281581</v>
+        <v>0.02821516478925029</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3059512128.162017</v>
+        <v>4284787851.765409</v>
       </c>
       <c r="F78" t="n">
-        <v>0.099687444750111</v>
+        <v>0.0872846385292822</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0492915210529817</v>
+        <v>0.0496509603165333</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2642,13 +2642,13 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1621237201.029608</v>
+        <v>1175552560.48336</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1481883270297304</v>
+        <v>0.1360506896748895</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0251532425745371</v>
+        <v>0.02687198428096003</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5256520656.049102</v>
+        <v>4447203521.384337</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09227213664985702</v>
+        <v>0.1076190764646811</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03503179140493876</v>
+        <v>0.02413132604378438</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4476236676.538618</v>
+        <v>4511436530.533773</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1201081049638053</v>
+        <v>0.09945845458664603</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02632925637222245</v>
+        <v>0.03214961435527536</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4748557581.566329</v>
+        <v>3636901115.995056</v>
       </c>
       <c r="F82" t="n">
-        <v>0.135831209148209</v>
+        <v>0.1548015560183946</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02480175890924428</v>
+        <v>0.02416756029530673</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1794197460.055741</v>
+        <v>1497404965.150311</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1396772703224846</v>
+        <v>0.1475900788266608</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03120639120221045</v>
+        <v>0.02774584690337631</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2782,13 +2782,13 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2396161526.492565</v>
+        <v>2488127971.765102</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1019526420246227</v>
+        <v>0.09256477316164487</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03790386997075596</v>
+        <v>0.0433810578878772</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3650792410.949683</v>
+        <v>3188164523.924524</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1529795598643792</v>
+        <v>0.172913446946118</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04422154629452363</v>
+        <v>0.05281026975436637</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2838,13 +2838,13 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1980184166.923504</v>
+        <v>2214689592.506774</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1166059170628657</v>
+        <v>0.1083646820630602</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02483789890556238</v>
+        <v>0.01897088470062819</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,22 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1176228905.68703</v>
+        <v>1399389397.610519</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1527240289248634</v>
+        <v>0.1811748716148624</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03887210085894937</v>
+        <v>0.03162308595298145</v>
       </c>
       <c r="H87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -2894,16 +2894,16 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3622009909.619189</v>
+        <v>3253356980.736603</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1529477276460948</v>
+        <v>0.1080587994268901</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03463507550656163</v>
+        <v>0.03919132250909612</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2555650289.770124</v>
+        <v>3230025651.452046</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1426661928536558</v>
+        <v>0.1327923528854072</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03661837942865353</v>
+        <v>0.03791870327613606</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2950,13 +2950,13 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1698988161.144784</v>
+        <v>1620490725.108419</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1264240544748707</v>
+        <v>0.1171758807093049</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04794800614733437</v>
+        <v>0.04552061477953777</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1318214570.566264</v>
+        <v>1779759792.158151</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1510190979159281</v>
+        <v>0.1961153191831909</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04964391081823471</v>
+        <v>0.05223781412262508</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1917576523.182118</v>
+        <v>2010787573.697514</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08681515823100174</v>
+        <v>0.07395914981924413</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04363320017138168</v>
+        <v>0.04171193627845591</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3299053595.527245</v>
+        <v>4111201711.318858</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1069286813025615</v>
+        <v>0.1417246279257008</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03886893146072053</v>
+        <v>0.04208161072973162</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1985552298.09626</v>
+        <v>2315884707.204332</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1354309478687992</v>
+        <v>0.1238685853244331</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03827233272350067</v>
+        <v>0.0298737781755979</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2781734829.233621</v>
+        <v>2061981884.292274</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1095864115773515</v>
+        <v>0.1280168217337004</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04864384624264339</v>
+        <v>0.03855611027280672</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,22 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1843927442.435856</v>
+        <v>1735933845.830677</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09909275231998516</v>
+        <v>0.1284423069600626</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04509854925118716</v>
+        <v>0.04452383585388277</v>
       </c>
       <c r="H96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5270852030.401548</v>
+        <v>4105859839.412634</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1690863947488719</v>
+        <v>0.1613929696777652</v>
       </c>
       <c r="G97" t="n">
-        <v>0.027082263630244</v>
+        <v>0.02819465048121166</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3582968115.591944</v>
+        <v>3131548169.446795</v>
       </c>
       <c r="F98" t="n">
-        <v>0.098477440642074</v>
+        <v>0.08899304768556376</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02882686070549734</v>
+        <v>0.02356111954213227</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3202,13 +3202,13 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3026656482.103438</v>
+        <v>2322530720.673948</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1235591728684722</v>
+        <v>0.09779181845318198</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03063327653433079</v>
+        <v>0.0221479101029355</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3230,13 +3230,13 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3283098046.76138</v>
+        <v>3918502608.045184</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1782218109679118</v>
+        <v>0.1732601738332047</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02520129155704469</v>
+        <v>0.02501596306030016</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2263727472.538819</v>
+        <v>3319848567.891118</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1828433579466056</v>
+        <v>0.1996332513689465</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04320868704179123</v>
+        <v>0.04137904142068535</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_131.xlsx
+++ b/output/fit_clients/fit_round_131.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2470977814.209255</v>
+        <v>1701811822.369681</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09370663385360135</v>
+        <v>0.07425728217156867</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02974412989874975</v>
+        <v>0.04197923363140373</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1918090439.986446</v>
+        <v>2429296785.998399</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1707873426176867</v>
+        <v>0.1830622895670405</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03945410681672751</v>
+        <v>0.0423718178251031</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,23 +565,30 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4417314155.358835</v>
+        <v>3326604005.241612</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1391851592918084</v>
+        <v>0.1511542733841831</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02309091943691088</v>
+        <v>0.02928194605830486</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
       </c>
+      <c r="I4" t="n">
+        <v>77</v>
+      </c>
+      <c r="J4" t="n">
+        <v>128</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,23 +600,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2688291376.398063</v>
+        <v>3890773246.935012</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1108392676550718</v>
+        <v>0.08337924949778334</v>
       </c>
       <c r="G5" t="n">
-        <v>0.05014709954840411</v>
+        <v>0.04347381791690284</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>53</v>
+      </c>
+      <c r="J5" t="n">
+        <v>131</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +635,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2739588857.885367</v>
+        <v>2350437666.347093</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1390849144583741</v>
+        <v>0.09509202374189918</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05085898884319997</v>
+        <v>0.0554853035431542</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +670,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>3054540856.224875</v>
+        <v>2251290521.624115</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08904659982358945</v>
+        <v>0.06133062278249269</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04438012885660799</v>
+        <v>0.04159695300990585</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +705,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2404318664.737965</v>
+        <v>3499041565.214902</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1926499094752294</v>
+        <v>0.186253366235027</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03236728317194416</v>
+        <v>0.02409401371399272</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>38</v>
+      </c>
+      <c r="J8" t="n">
+        <v>131</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +740,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1417882913.874281</v>
+        <v>2061068158.754566</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1972612632383007</v>
+        <v>0.1469775177578166</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02404699032093166</v>
+        <v>0.0314487817547931</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +775,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5170418482.764737</v>
+        <v>4462439928.175985</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1324300946186886</v>
+        <v>0.1439531359748709</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05343504710097835</v>
+        <v>0.03368150541693075</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>120</v>
+      </c>
+      <c r="J10" t="n">
+        <v>131</v>
+      </c>
+      <c r="K10" t="n">
+        <v>158.8003918765052</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +812,31 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3357131899.262614</v>
+        <v>4174786870.018953</v>
       </c>
       <c r="F11" t="n">
-        <v>0.184308056578522</v>
+        <v>0.1502867180714311</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03046322735896918</v>
+        <v>0.04890059881452988</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>56</v>
+      </c>
+      <c r="J11" t="n">
+        <v>131</v>
+      </c>
+      <c r="K11" t="n">
+        <v>157.5220462888825</v>
       </c>
     </row>
     <row r="12">
@@ -760,23 +849,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2153993384.242491</v>
+        <v>3141927789.707028</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1488999545789921</v>
+        <v>0.1240203485631073</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04405772704809336</v>
+        <v>0.04344550316509942</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,22 +884,31 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4093763903.667275</v>
+        <v>3899299413.353176</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07206302476030162</v>
+        <v>0.09356467761240296</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0251536342314866</v>
+        <v>0.02884774109389168</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>64</v>
+      </c>
+      <c r="J13" t="n">
+        <v>130</v>
+      </c>
+      <c r="K13" t="n">
+        <v>133.4469165063722</v>
       </c>
     </row>
     <row r="14">
@@ -822,17 +927,24 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3280803884.712936</v>
+        <v>2963282987.396234</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1719390971404508</v>
+        <v>0.134936345335559</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03875962999913095</v>
+        <v>0.03572608925936096</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>23</v>
+      </c>
+      <c r="J14" t="n">
+        <v>124</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +956,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1510766581.317577</v>
+        <v>1621944745.861224</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07770539303800923</v>
+        <v>0.09858721166899242</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04563138255315828</v>
+        <v>0.03999678027627295</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +991,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2358160195.748588</v>
+        <v>2351980228.835389</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09249437442033863</v>
+        <v>0.1137395350641697</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03806301367285166</v>
+        <v>0.05142895295837946</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,22 +1026,31 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3798913749.806979</v>
+        <v>4030439271.957433</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1522080250888906</v>
+        <v>0.1229787722731081</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05189598514594588</v>
+        <v>0.0524255018138181</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>63</v>
+      </c>
+      <c r="J17" t="n">
+        <v>130</v>
+      </c>
+      <c r="K17" t="n">
+        <v>130.7297028489347</v>
       </c>
     </row>
     <row r="18">
@@ -934,16 +1069,25 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3775248067.101007</v>
+        <v>3127794167.503388</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1803593895003157</v>
+        <v>0.1404619660702085</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02831618020526972</v>
+        <v>0.02806463801604071</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>35</v>
+      </c>
+      <c r="J18" t="n">
+        <v>130</v>
+      </c>
+      <c r="K18" t="n">
+        <v>84.37872309461396</v>
       </c>
     </row>
     <row r="19">
@@ -962,17 +1106,24 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1134796169.912643</v>
+        <v>1023803801.637709</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1336278538371936</v>
+        <v>0.1722405179190717</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02590310825405844</v>
+        <v>0.02087081721717292</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1135,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1969941702.966914</v>
+        <v>2511929901.604973</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1235927389987247</v>
+        <v>0.1294960858883289</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02188209688749861</v>
+        <v>0.01953723521059164</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1018,17 +1176,24 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1780594753.335907</v>
+        <v>2575678229.484578</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06483476153934677</v>
+        <v>0.08869400657697539</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04127978324959314</v>
+        <v>0.03174383760445532</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1205,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3823275903.24644</v>
+        <v>2764239639.966753</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1170088057993257</v>
+        <v>0.1016456135273941</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04994212969256342</v>
+        <v>0.05412500305530944</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>33</v>
+      </c>
+      <c r="J22" t="n">
+        <v>123</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1240,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1298881517.300266</v>
+        <v>1539413769.712056</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1747002292050039</v>
+        <v>0.158260095088595</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0437927558938827</v>
+        <v>0.03497141251456154</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1102,17 +1281,24 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3978296323.532451</v>
+        <v>2521515432.262143</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1025282760021698</v>
+        <v>0.1346168525700143</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02876579232218685</v>
+        <v>0.02841834869359855</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>38</v>
+      </c>
+      <c r="J24" t="n">
+        <v>127</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1310,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1381907376.28673</v>
+        <v>927724885.5935374</v>
       </c>
       <c r="F25" t="n">
-        <v>0.100813207417456</v>
+        <v>0.1168139850710152</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02617194067447684</v>
+        <v>0.02225929643118666</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1345,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>923545177.8793361</v>
+        <v>1430872092.368758</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1057128942475863</v>
+        <v>0.1037523185342207</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03819098376579196</v>
+        <v>0.03668399226692452</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1186,17 +1386,24 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3500028088.290648</v>
+        <v>4075214018.473638</v>
       </c>
       <c r="F27" t="n">
-        <v>0.152937871585913</v>
+        <v>0.1370784542526026</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02536982436354627</v>
+        <v>0.02543966483419463</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
+      <c r="I27" t="n">
+        <v>51</v>
+      </c>
+      <c r="J27" t="n">
+        <v>131</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1214,16 +1421,25 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3697380809.48498</v>
+        <v>3348863146.083227</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1065557174827459</v>
+        <v>0.09978369137995209</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03792302756760867</v>
+        <v>0.04098385418877497</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>29</v>
+      </c>
+      <c r="J28" t="n">
+        <v>130</v>
+      </c>
+      <c r="K28" t="n">
+        <v>100.161932655444</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1452,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4062674387.731305</v>
+        <v>4733580073.776148</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1118432036963571</v>
+        <v>0.1475610940132166</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04066776721542357</v>
+        <v>0.03261633165229934</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>121</v>
+      </c>
+      <c r="J29" t="n">
+        <v>131</v>
+      </c>
+      <c r="K29" t="n">
+        <v>172.7019858532482</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1489,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2409080693.480955</v>
+        <v>2105543758.182831</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1386783390963947</v>
+        <v>0.08919832135459166</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03757726595553579</v>
+        <v>0.03669066328685309</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1524,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1389165330.193461</v>
+        <v>1493249231.636914</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07110400876451929</v>
+        <v>0.1031559661091948</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03495825703694033</v>
+        <v>0.0326442197545106</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1559,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1676934083.312599</v>
+        <v>1351580501.05778</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1037468956655068</v>
+        <v>0.08507068667144425</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02570788441783897</v>
+        <v>0.03364778962256609</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1594,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2167195914.341641</v>
+        <v>2653229160.004428</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1393614025733071</v>
+        <v>0.1913947148169687</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04454876922921092</v>
+        <v>0.04052270536379902</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1382,17 +1635,24 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1160920935.952107</v>
+        <v>1189050752.282618</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08386118773054592</v>
+        <v>0.08799734415251639</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02526923650442295</v>
+        <v>0.01820069155016267</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1664,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1094859893.526438</v>
+        <v>1322190394.368327</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09917283990333144</v>
+        <v>0.09634434866116319</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0308608946304599</v>
+        <v>0.0439302963057177</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1699,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3128204295.78701</v>
+        <v>2396176119.668271</v>
       </c>
       <c r="F36" t="n">
-        <v>0.165209810578165</v>
+        <v>0.1613372142281554</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02541528701535056</v>
+        <v>0.02658074509764498</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>2</v>
+      </c>
+      <c r="J36" t="n">
+        <v>86</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1734,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2170471950.617272</v>
+        <v>2865256811.254389</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1019316010170227</v>
+        <v>0.09321249470671916</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03084525923456093</v>
+        <v>0.0270101714117723</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1769,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2073514693.367334</v>
+        <v>1934435373.623235</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1165944696965097</v>
+        <v>0.07373394175717003</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03950852101431245</v>
+        <v>0.03781547765101186</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1804,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1870036697.356467</v>
+        <v>1667195560.223011</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1512404177317738</v>
+        <v>0.1430707341861763</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02338047545684079</v>
+        <v>0.03100893316966596</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1839,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1498863740.184243</v>
+        <v>1717804426.000871</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1353425391642088</v>
+        <v>0.09801143848310406</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0385355664196715</v>
+        <v>0.0442507113660116</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1578,17 +1880,24 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2464034966.599926</v>
+        <v>2505490648.053153</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1191234890232326</v>
+        <v>0.1190105428331418</v>
       </c>
       <c r="G41" t="n">
-        <v>0.02847031727786721</v>
+        <v>0.04707271567599388</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,22 +1909,31 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2844778921.513149</v>
+        <v>3479103656.355752</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1058907610596123</v>
+        <v>0.1181363129072102</v>
       </c>
       <c r="G42" t="n">
-        <v>0.02941401834351578</v>
+        <v>0.04115030814727346</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>49</v>
+      </c>
+      <c r="J42" t="n">
+        <v>130</v>
+      </c>
+      <c r="K42" t="n">
+        <v>111.771908717433</v>
       </c>
     </row>
     <row r="43">
@@ -1628,23 +1946,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2863504446.432683</v>
+        <v>2598245167.459648</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1626274697208418</v>
+        <v>0.1597255193132089</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01984830309743635</v>
+        <v>0.02207898561435231</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1981,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1437786262.190964</v>
+        <v>2104427950.294011</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07422317469239041</v>
+        <v>0.09065229558087821</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02478273702936317</v>
+        <v>0.03102668510696042</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2016,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2049883737.686021</v>
+        <v>2015041463.707582</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1367494515665432</v>
+        <v>0.1908266802641675</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04748671415072288</v>
+        <v>0.05595596936698036</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1718,16 +2057,25 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3862846373.205859</v>
+        <v>4586131412.744088</v>
       </c>
       <c r="F46" t="n">
-        <v>0.151729960112589</v>
+        <v>0.1692589184696632</v>
       </c>
       <c r="G46" t="n">
-        <v>0.06028381274477378</v>
+        <v>0.04528006216575198</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>75</v>
+      </c>
+      <c r="J46" t="n">
+        <v>130</v>
+      </c>
+      <c r="K46" t="n">
+        <v>148.6408030433147</v>
       </c>
     </row>
     <row r="47">
@@ -1746,17 +2094,24 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>5060011112.813437</v>
+        <v>3384394803.958312</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1647686790812461</v>
+        <v>0.1871848817450429</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04247548567618217</v>
+        <v>0.03640352597632478</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>58</v>
+      </c>
+      <c r="J47" t="n">
+        <v>129</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1768,22 +2123,31 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3531483720.154983</v>
+        <v>4296006144.940119</v>
       </c>
       <c r="F48" t="n">
-        <v>0.06968525963732938</v>
+        <v>0.1100160380911435</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0383158591287583</v>
+        <v>0.03827936717922534</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>52</v>
+      </c>
+      <c r="J48" t="n">
+        <v>130</v>
+      </c>
+      <c r="K48" t="n">
+        <v>148.3351189547656</v>
       </c>
     </row>
     <row r="49">
@@ -1796,23 +2160,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1440566727.138433</v>
+        <v>1336117393.906902</v>
       </c>
       <c r="F49" t="n">
-        <v>0.19582568905324</v>
+        <v>0.1759235476503342</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03041707553940894</v>
+        <v>0.02803834637833053</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2195,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4096052112.620651</v>
+        <v>3937822774.229475</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1195809512054131</v>
+        <v>0.1450660163393232</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04883762920720929</v>
+        <v>0.03568598683900093</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>45</v>
+      </c>
+      <c r="J50" t="n">
+        <v>131</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2230,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1423253312.896549</v>
+        <v>1512749288.412205</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1630250819687952</v>
+        <v>0.1453245145989341</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05007079348725156</v>
+        <v>0.04802303613078076</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,23 +2265,30 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5138448271.513054</v>
+        <v>4970726532.309083</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1199974344785363</v>
+        <v>0.1142437880302079</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05275953641883718</v>
+        <v>0.04371029050373435</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>99</v>
+      </c>
+      <c r="J52" t="n">
+        <v>131</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1914,17 +2306,24 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3228736468.1453</v>
+        <v>2761062301.724998</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1712077027899598</v>
+        <v>0.1873632021405516</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0237246699929332</v>
+        <v>0.03197888382517394</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>16</v>
+      </c>
+      <c r="J53" t="n">
+        <v>129</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,23 +2335,30 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3457329691.917242</v>
+        <v>3753812133.720902</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1093279721928758</v>
+        <v>0.1137209288361412</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04520452639013716</v>
+        <v>0.03452028908282344</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
       </c>
+      <c r="I54" t="n">
+        <v>59</v>
+      </c>
+      <c r="J54" t="n">
+        <v>131</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1964,23 +2370,30 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3388341368.394475</v>
+        <v>3174528841.386648</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1458685204519432</v>
+        <v>0.1388531943083462</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0223761178623891</v>
+        <v>0.02283822805982406</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>60</v>
+      </c>
+      <c r="J55" t="n">
+        <v>129</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1992,23 +2405,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1257661502.121991</v>
+        <v>1178064286.770192</v>
       </c>
       <c r="F56" t="n">
-        <v>0.140456229729131</v>
+        <v>0.1634227474451266</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0470956247802647</v>
+        <v>0.04806751185536007</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2026,16 +2446,25 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3857625084.146763</v>
+        <v>2881475392.854569</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1320603857236274</v>
+        <v>0.1298051504714137</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01736127247417001</v>
+        <v>0.02739969905525393</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>52</v>
+      </c>
+      <c r="J57" t="n">
+        <v>130</v>
+      </c>
+      <c r="K57" t="n">
+        <v>71.26544477650049</v>
       </c>
     </row>
     <row r="58">
@@ -2048,23 +2477,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1285576823.448758</v>
+        <v>1175670482.914677</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1844981161832776</v>
+        <v>0.1400257967663747</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03507562407591884</v>
+        <v>0.0332542731879443</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,23 +2512,30 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3779669556.234488</v>
+        <v>4521089055.867934</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1284399813290041</v>
+        <v>0.102555235562681</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03255230835234328</v>
+        <v>0.03814765362148505</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>63</v>
+      </c>
+      <c r="J59" t="n">
+        <v>131</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2104,22 +2547,31 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3462098354.41641</v>
+        <v>2351905961.792028</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1637909141759995</v>
+        <v>0.1580724531898749</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02081813698014418</v>
+        <v>0.02695235344796248</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>21</v>
+      </c>
+      <c r="J60" t="n">
+        <v>130</v>
+      </c>
+      <c r="K60" t="n">
+        <v>49.10302829845842</v>
       </c>
     </row>
     <row r="61">
@@ -2132,23 +2584,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2578730226.393848</v>
+        <v>2364062167.69021</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1237063053941398</v>
+        <v>0.1482402129883232</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02290299741388862</v>
+        <v>0.02292061561939997</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>3</v>
+      </c>
+      <c r="J61" t="n">
+        <v>118</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2166,17 +2625,24 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1749552572.425092</v>
+        <v>1802283668.385381</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1777706294824827</v>
+        <v>0.1915517140001809</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04237021917023341</v>
+        <v>0.03869085429717241</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,23 +2654,30 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4183777296.823995</v>
+        <v>3409402072.727843</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08853064819289143</v>
+        <v>0.06707426545726937</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03456637603720233</v>
+        <v>0.02873875265404934</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>64</v>
+      </c>
+      <c r="J63" t="n">
+        <v>131</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2216,22 +2689,31 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5302976358.004083</v>
+        <v>3473849756.001047</v>
       </c>
       <c r="F64" t="n">
-        <v>0.119364431416582</v>
+        <v>0.1384353311381983</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02836679903207577</v>
+        <v>0.03152617629156833</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>65</v>
+      </c>
+      <c r="J64" t="n">
+        <v>130</v>
+      </c>
+      <c r="K64" t="n">
+        <v>104.3529262671515</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2726,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4663061607.39833</v>
+        <v>5225053820.861557</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1728123865801585</v>
+        <v>0.1461269447259761</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02469943480863914</v>
+        <v>0.02554604557575426</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>109</v>
+      </c>
+      <c r="J65" t="n">
+        <v>131</v>
+      </c>
+      <c r="K65" t="n">
+        <v>150.9594141522773</v>
       </c>
     </row>
     <row r="66">
@@ -2278,17 +2769,24 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5592444121.533569</v>
+        <v>4543193770.318383</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1096250801604405</v>
+        <v>0.1256740224439482</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04117693401230191</v>
+        <v>0.04879537914526089</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>64</v>
+      </c>
+      <c r="J66" t="n">
+        <v>131</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2300,23 +2798,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3409288364.255296</v>
+        <v>2660159532.738025</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06642700394169412</v>
+        <v>0.08016380184996026</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03163443841308368</v>
+        <v>0.03540273492655762</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,22 +2833,31 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4814965530.071038</v>
+        <v>5677478285.779408</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1448665086068303</v>
+        <v>0.1153415579579011</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04467112120366878</v>
+        <v>0.03578944611781984</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>66</v>
+      </c>
+      <c r="J68" t="n">
+        <v>130</v>
+      </c>
+      <c r="K68" t="n">
+        <v>137.2645689868451</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2870,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1544204644.726507</v>
+        <v>1654267445.361807</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1632491344939096</v>
+        <v>0.175006768783647</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03946184134126303</v>
+        <v>0.05448062819008329</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,22 +2905,31 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2461425777.349013</v>
+        <v>2471781717.162197</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07271601683045534</v>
+        <v>0.09394177751614083</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04043233626583227</v>
+        <v>0.03296712881285188</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>16</v>
+      </c>
+      <c r="J70" t="n">
+        <v>130</v>
+      </c>
+      <c r="K70" t="n">
+        <v>52.01871327614364</v>
       </c>
     </row>
     <row r="71">
@@ -2412,22 +2942,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5317562023.311051</v>
+        <v>4584220123.557015</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1610189181863395</v>
+        <v>0.1633385935886372</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02857943875372708</v>
+        <v>0.02560612224799375</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>106</v>
+      </c>
+      <c r="J71" t="n">
+        <v>130</v>
+      </c>
+      <c r="K71" t="n">
+        <v>148.6360638744803</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2979,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1600772850.439893</v>
+        <v>1975247416.294621</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07907120011504791</v>
+        <v>0.1068339520520079</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03729343240003932</v>
+        <v>0.0508328749048295</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3014,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3181032541.788282</v>
+        <v>2776636618.141041</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09324286918073106</v>
+        <v>0.07126595137434726</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03328337377384941</v>
+        <v>0.044440552789428</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>9</v>
+      </c>
+      <c r="J73" t="n">
+        <v>118</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2502,17 +3055,24 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3648385508.766501</v>
+        <v>2812668703.763738</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1578183970417179</v>
+        <v>0.1317717597813721</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03414065497381759</v>
+        <v>0.0259195669134474</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>43</v>
+      </c>
+      <c r="J74" t="n">
+        <v>129</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2530,17 +3090,24 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1893431079.200026</v>
+        <v>2287713644.635155</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1129848980428151</v>
+        <v>0.1325136949754257</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03639228087418353</v>
+        <v>0.03413171153876476</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,22 +3119,31 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4251632777.995777</v>
+        <v>3919296197.484821</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08719798011348796</v>
+        <v>0.1018527366201929</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02105385733221542</v>
+        <v>0.03233383141756222</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>61</v>
+      </c>
+      <c r="J76" t="n">
+        <v>130</v>
+      </c>
+      <c r="K76" t="n">
+        <v>112.7537929621414</v>
       </c>
     </row>
     <row r="77">
@@ -2580,23 +3156,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1496521053.628314</v>
+        <v>1614765498.943735</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1260588172935701</v>
+        <v>0.1745662330751925</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02821516478925029</v>
+        <v>0.01913724957174539</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,23 +3191,30 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4284787851.765409</v>
+        <v>4712648080.794878</v>
       </c>
       <c r="F78" t="n">
-        <v>0.0872846385292822</v>
+        <v>0.117592684607546</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0496509603165333</v>
+        <v>0.04903339250530102</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
       </c>
+      <c r="I78" t="n">
+        <v>64</v>
+      </c>
+      <c r="J78" t="n">
+        <v>131</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2636,23 +3226,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1175552560.48336</v>
+        <v>1636289882.018673</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1360506896748895</v>
+        <v>0.1180825095831114</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02687198428096003</v>
+        <v>0.02566036647393272</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,23 +3261,30 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4447203521.384337</v>
+        <v>4989083581.959715</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1076190764646811</v>
+        <v>0.06879393893069455</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02413132604378438</v>
+        <v>0.03333932557987616</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>63</v>
+      </c>
+      <c r="J80" t="n">
+        <v>131</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2692,23 +3296,30 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4511436530.533773</v>
+        <v>4503495854.692816</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09945845458664603</v>
+        <v>0.09782598744279079</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03214961435527536</v>
+        <v>0.02671538029592366</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>59</v>
+      </c>
+      <c r="J81" t="n">
+        <v>131</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2726,16 +3337,25 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3636901115.995056</v>
+        <v>5491464300.393126</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1548015560183946</v>
+        <v>0.1692972127824881</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02416756029530673</v>
+        <v>0.02329797107651124</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>92</v>
+      </c>
+      <c r="J82" t="n">
+        <v>131</v>
+      </c>
+      <c r="K82" t="n">
+        <v>156.7742280082056</v>
       </c>
     </row>
     <row r="83">
@@ -2754,17 +3374,24 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1497404965.150311</v>
+        <v>2093038495.054981</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1475900788266608</v>
+        <v>0.1022492576057283</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02774584690337631</v>
+        <v>0.04196011906642821</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3403,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2488127971.765102</v>
+        <v>2171986349.614621</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09256477316164487</v>
+        <v>0.08301677107644208</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0433810578878772</v>
+        <v>0.04134077434265686</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3438,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3188164523.924524</v>
+        <v>3146375879.975803</v>
       </c>
       <c r="F85" t="n">
-        <v>0.172913446946118</v>
+        <v>0.1662238852363278</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05281026975436637</v>
+        <v>0.04525707396884168</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>19</v>
+      </c>
+      <c r="J85" t="n">
+        <v>106</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3473,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2214689592.506774</v>
+        <v>2002899090.445905</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1083646820630602</v>
+        <v>0.1340932610044346</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01897088470062819</v>
+        <v>0.02281918009829409</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3508,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1399389397.610519</v>
+        <v>1058877434.52264</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1811748716148624</v>
+        <v>0.1360091356040582</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03162308595298145</v>
+        <v>0.03278374054659051</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3543,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3253356980.736603</v>
+        <v>2790349091.109372</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1080587994268901</v>
+        <v>0.1567658228590217</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03919132250909612</v>
+        <v>0.03959740606627513</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>18</v>
+      </c>
+      <c r="J88" t="n">
+        <v>122</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2922,17 +3584,24 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3230025651.452046</v>
+        <v>2220024776.590521</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1327923528854072</v>
+        <v>0.119731914204875</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03791870327613606</v>
+        <v>0.03809566613909005</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>11</v>
+      </c>
+      <c r="J89" t="n">
+        <v>124</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3613,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1620490725.108419</v>
+        <v>2163701514.044265</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1171758807093049</v>
+        <v>0.1382400901065331</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04552061477953777</v>
+        <v>0.03687031871937347</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3648,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1779759792.158151</v>
+        <v>1963870688.029717</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1961153191831909</v>
+        <v>0.1736994109581566</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05223781412262508</v>
+        <v>0.03785390095038525</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3683,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2010787573.697514</v>
+        <v>2798286674.738966</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07395914981924413</v>
+        <v>0.07840535133779428</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04171193627845591</v>
+        <v>0.04649775489719416</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,23 +3718,30 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4111201711.318858</v>
+        <v>4249688277.205704</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1417246279257008</v>
+        <v>0.08951792056101666</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04208161072973162</v>
+        <v>0.04518460634031229</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
       </c>
+      <c r="I93" t="n">
+        <v>59</v>
+      </c>
+      <c r="J93" t="n">
+        <v>131</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3056,23 +3753,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2315884707.204332</v>
+        <v>2090881705.867671</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1238685853244331</v>
+        <v>0.1235682206023714</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0298737781755979</v>
+        <v>0.02851114857893304</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3788,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2061981884.292274</v>
+        <v>2894074912.162528</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1280168217337004</v>
+        <v>0.1111848824706927</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03855611027280672</v>
+        <v>0.03744269567263532</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3823,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1735933845.830677</v>
+        <v>2093828018.347339</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1284423069600626</v>
+        <v>0.132463250143276</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04452383585388277</v>
+        <v>0.04528848493621292</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3146,16 +3864,25 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4105859839.412634</v>
+        <v>5201725729.918604</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1613929696777652</v>
+        <v>0.1071985098390652</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02819465048121166</v>
+        <v>0.02296234640857934</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>63</v>
+      </c>
+      <c r="J97" t="n">
+        <v>130</v>
+      </c>
+      <c r="K97" t="n">
+        <v>144.0552808974288</v>
       </c>
     </row>
     <row r="98">
@@ -3168,23 +3895,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3131548169.446795</v>
+        <v>2760841055.21156</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08899304768556376</v>
+        <v>0.09741884687954445</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02356111954213227</v>
+        <v>0.03033654243910031</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>31</v>
+      </c>
+      <c r="J98" t="n">
+        <v>129</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3202,17 +3936,24 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2322530720.673948</v>
+        <v>2161859395.89722</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09779181845318198</v>
+        <v>0.1067847443423269</v>
       </c>
       <c r="G99" t="n">
-        <v>0.0221479101029355</v>
+        <v>0.03545294946004872</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>1</v>
+      </c>
+      <c r="J99" t="n">
+        <v>62</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3230,17 +3971,24 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3918502608.045184</v>
+        <v>3957065481.801478</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1732601738332047</v>
+        <v>0.1094160985247862</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02501596306030016</v>
+        <v>0.02474350054057705</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>53</v>
+      </c>
+      <c r="J100" t="n">
+        <v>131</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3319848567.891118</v>
+        <v>3585252566.434103</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1996332513689465</v>
+        <v>0.1774715325743274</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04137904142068535</v>
+        <v>0.03553546187461814</v>
       </c>
       <c r="H101" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>7</v>
+      </c>
+      <c r="J101" t="n">
+        <v>131</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
